--- a/convertExcel/bin/Debug/Sample.xlsx
+++ b/convertExcel/bin/Debug/Sample.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<x:workbook xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<x:workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:bookViews>
     <x:workbookView/>
   </x:bookViews>
